--- a/Peaks-dataset-article/redes-ensemble/Teste03/content/results/metrics_18_9.xlsx
+++ b/Peaks-dataset-article/redes-ensemble/Teste03/content/results/metrics_18_9.xlsx
@@ -518,111 +518,111 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_18_9_1</t>
+          <t>model_18_9_3</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9830766474151559</v>
+        <v>0.9920200054646416</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7841116200548114</v>
+        <v>0.7841059159599</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9763082163456928</v>
+        <v>0.9306468330378499</v>
       </c>
       <c r="E2" t="n">
-        <v>0.974746629388176</v>
+        <v>0.9959575454790687</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9753046510808524</v>
+        <v>0.9744201631111438</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1131665366597258</v>
+        <v>0.05336226020243731</v>
       </c>
       <c r="H2" t="n">
-        <v>1.443646590768061</v>
+        <v>1.443684734076998</v>
       </c>
       <c r="I2" t="n">
-        <v>0.149569590960332</v>
+        <v>0.2983394059505283</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2874023837048912</v>
+        <v>0.02828855186746081</v>
       </c>
       <c r="K2" t="n">
-        <v>0.2184859873326117</v>
+        <v>0.1633140693721456</v>
       </c>
       <c r="L2" t="n">
-        <v>0.840179572555669</v>
+        <v>0.08922491778397777</v>
       </c>
       <c r="M2" t="n">
-        <v>0.3364023434218701</v>
+        <v>0.2310027276947987</v>
       </c>
       <c r="N2" t="n">
-        <v>1.004367316796089</v>
+        <v>1.005803632389352</v>
       </c>
       <c r="O2" t="n">
-        <v>0.3507236876301904</v>
+        <v>0.2408369920543347</v>
       </c>
       <c r="P2" t="n">
-        <v>238.3577895389233</v>
+        <v>119.8613030413099</v>
       </c>
       <c r="Q2" t="n">
-        <v>380.9662610485028</v>
+        <v>189.3372250587973</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_18_9_0</t>
+          <t>model_18_9_4</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9829093088124062</v>
+        <v>0.9901416716202139</v>
       </c>
       <c r="C3" t="n">
-        <v>0.784090425048642</v>
+        <v>0.78379657960326</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9796550798095534</v>
+        <v>0.9123334496837425</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9778807508341374</v>
+        <v>0.9952550700334957</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9785145677853598</v>
+        <v>0.9678655983663208</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1142855306668364</v>
+        <v>0.06592268726905789</v>
       </c>
       <c r="H3" t="n">
-        <v>1.443788321871909</v>
+        <v>1.445753267718213</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1284403671503426</v>
+        <v>0.3771188496317445</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2517337203713651</v>
+        <v>0.03320438035107505</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1900870437608538</v>
+        <v>0.2051615856831887</v>
       </c>
       <c r="L3" t="n">
-        <v>0.9161661192614363</v>
+        <v>0.07298065560003604</v>
       </c>
       <c r="M3" t="n">
-        <v>0.3380614303153148</v>
+        <v>0.256754137783713</v>
       </c>
       <c r="N3" t="n">
-        <v>1.004410500951637</v>
+        <v>1.007169693367117</v>
       </c>
       <c r="O3" t="n">
-        <v>0.3524534052874724</v>
+        <v>0.2676846929835018</v>
       </c>
       <c r="P3" t="n">
-        <v>238.338110614072</v>
+        <v>119.4385452572022</v>
       </c>
       <c r="Q3" t="n">
-        <v>380.9465821236515</v>
+        <v>188.9144672746896</v>
       </c>
     </row>
     <row r="4">
@@ -632,1262 +632,1262 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.983044397991173</v>
+        <v>0.994898856971139</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7839538033123904</v>
+        <v>0.7835675644581347</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9729683467869832</v>
+        <v>0.9616794933418844</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9719500115945242</v>
+        <v>0.9971677574920319</v>
       </c>
       <c r="F4" t="n">
-        <v>0.972314305331258</v>
+        <v>0.9855380206652571</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1133821887063943</v>
+        <v>0.03411136692259729</v>
       </c>
       <c r="H4" t="n">
-        <v>1.444701912051309</v>
+        <v>1.447284693048183</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1706546612549971</v>
+        <v>0.1648449190264783</v>
       </c>
       <c r="J4" t="n">
-        <v>0.3192300011965035</v>
+        <v>0.01981965132150042</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2449423312257503</v>
+        <v>0.09233228134311042</v>
       </c>
       <c r="L4" t="n">
-        <v>0.7714628584227232</v>
+        <v>0.1101235919887691</v>
       </c>
       <c r="M4" t="n">
-        <v>0.3367227178353049</v>
+        <v>0.1846926282302499</v>
       </c>
       <c r="N4" t="n">
-        <v>1.004375639228084</v>
+        <v>1.003709922202808</v>
       </c>
       <c r="O4" t="n">
-        <v>0.3510577010456716</v>
+        <v>0.1925553757804585</v>
       </c>
       <c r="P4" t="n">
-        <v>238.3539819322117</v>
+        <v>120.7562492187995</v>
       </c>
       <c r="Q4" t="n">
-        <v>380.9624534417911</v>
+        <v>190.2321712362869</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_18_9_3</t>
+          <t>model_18_9_5</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9828696135062656</v>
+        <v>0.9891026595645886</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7836757807758262</v>
+        <v>0.783508494205954</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9696891945603801</v>
+        <v>0.9025555873136141</v>
       </c>
       <c r="E5" t="n">
-        <v>0.969463317249012</v>
+        <v>0.9948784252442441</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9695449592350657</v>
+        <v>0.9643651018522073</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1145509733617794</v>
+        <v>0.07287056566923426</v>
       </c>
       <c r="H5" t="n">
-        <v>1.44656105003349</v>
+        <v>1.447679696096509</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1913564144191377</v>
+        <v>0.419180687306182</v>
       </c>
       <c r="J5" t="n">
-        <v>0.3475304563488564</v>
+        <v>0.03584008981946446</v>
       </c>
       <c r="K5" t="n">
-        <v>0.2694434353839971</v>
+        <v>0.2275104510425278</v>
       </c>
       <c r="L5" t="n">
-        <v>0.7093561621663954</v>
+        <v>0.06344526084258323</v>
       </c>
       <c r="M5" t="n">
-        <v>0.3384537979721595</v>
+        <v>0.2699454864768705</v>
       </c>
       <c r="N5" t="n">
-        <v>1.004420744901609</v>
+        <v>1.007925338498481</v>
       </c>
       <c r="O5" t="n">
-        <v>0.352862476847782</v>
+        <v>0.2814376247003832</v>
       </c>
       <c r="P5" t="n">
-        <v>238.3334707457062</v>
+        <v>119.2381409692249</v>
       </c>
       <c r="Q5" t="n">
-        <v>380.9419422552857</v>
+        <v>188.7140629867123</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_18_9_4</t>
+          <t>model_18_9_6</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9825947834651036</v>
+        <v>0.9885594057926098</v>
       </c>
       <c r="C6" t="n">
-        <v>0.783319350331096</v>
+        <v>0.7833324526483019</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9665087822958524</v>
+        <v>0.8975211457908947</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9672547677259958</v>
+        <v>0.9946835757796059</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9669897393337857</v>
+        <v>0.9625622844096069</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1163887631125052</v>
+        <v>0.07650330614391099</v>
       </c>
       <c r="H6" t="n">
-        <v>1.448944502058612</v>
+        <v>1.448856886803126</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2114348081961357</v>
+        <v>0.4408375540214467</v>
       </c>
       <c r="J6" t="n">
-        <v>0.3726654138641103</v>
+        <v>0.03720362010984237</v>
       </c>
       <c r="K6" t="n">
-        <v>0.292050111030123</v>
+        <v>0.2390205108668114</v>
       </c>
       <c r="L6" t="n">
-        <v>0.6532648712740055</v>
+        <v>0.05832504151165224</v>
       </c>
       <c r="M6" t="n">
-        <v>0.3411579738369092</v>
+        <v>0.276592310348482</v>
       </c>
       <c r="N6" t="n">
-        <v>1.004491668783199</v>
+        <v>1.008320432150829</v>
       </c>
       <c r="O6" t="n">
-        <v>0.3556817750775098</v>
+        <v>0.2883674176250315</v>
       </c>
       <c r="P6" t="n">
-        <v>238.3016385703579</v>
+        <v>119.1408426430321</v>
       </c>
       <c r="Q6" t="n">
-        <v>380.9101100799373</v>
+        <v>188.6167646605195</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_18_9_5</t>
+          <t>model_18_9_7</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9822520950265162</v>
+        <v>0.9882820173026495</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7829146035953575</v>
+        <v>0.78323668011884</v>
       </c>
       <c r="D7" t="n">
-        <v>0.963454114180319</v>
+        <v>0.8949691059792059</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9652929694495627</v>
+        <v>0.9945844845453856</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9646380886051341</v>
+        <v>0.9616482211138286</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1186803222792743</v>
+        <v>0.07835820425353175</v>
       </c>
       <c r="H7" t="n">
-        <v>1.451651045344183</v>
+        <v>1.44949731814863</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2307193613233478</v>
+        <v>0.4518157699376263</v>
       </c>
       <c r="J7" t="n">
-        <v>0.3949921562883887</v>
+        <v>0.03789704721071302</v>
       </c>
       <c r="K7" t="n">
-        <v>0.3128557588058682</v>
+        <v>0.2448563337121979</v>
       </c>
       <c r="L7" t="n">
-        <v>0.6026151077081207</v>
+        <v>0.05567439278644273</v>
       </c>
       <c r="M7" t="n">
-        <v>0.3445001049045911</v>
+        <v>0.2799253547886146</v>
       </c>
       <c r="N7" t="n">
-        <v>1.004580104509286</v>
+        <v>1.008522169234437</v>
       </c>
       <c r="O7" t="n">
-        <v>0.359166187583908</v>
+        <v>0.2918423566673337</v>
       </c>
       <c r="P7" t="n">
-        <v>238.2626435360635</v>
+        <v>119.09292920558</v>
       </c>
       <c r="Q7" t="n">
-        <v>380.871115045643</v>
+        <v>188.5688512230674</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_18_9_6</t>
+          <t>model_18_9_8</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.981865855705612</v>
+        <v>0.9881418472129707</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7824832375703634</v>
+        <v>0.7831868323507803</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9605428410172991</v>
+        <v>0.8936840459756235</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9635490520306756</v>
+        <v>0.9945345189230022</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9624777357393355</v>
+        <v>0.9611878999490979</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1212631063966292</v>
+        <v>0.07929552228863815</v>
       </c>
       <c r="H8" t="n">
-        <v>1.454535591939576</v>
+        <v>1.449830650403172</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2490986417743365</v>
+        <v>0.4573437660605547</v>
       </c>
       <c r="J8" t="n">
-        <v>0.4148392504001723</v>
+        <v>0.03824669990143977</v>
       </c>
       <c r="K8" t="n">
-        <v>0.3319689460872545</v>
+        <v>0.2477952470038244</v>
       </c>
       <c r="L8" t="n">
-        <v>0.5569036540964948</v>
+        <v>0.05433534068606662</v>
       </c>
       <c r="M8" t="n">
-        <v>0.3482285261098367</v>
+        <v>0.2815946062847052</v>
       </c>
       <c r="N8" t="n">
-        <v>1.004679779172745</v>
+        <v>1.00862411111784</v>
       </c>
       <c r="O8" t="n">
-        <v>0.3630533353987568</v>
+        <v>0.2935826716554399</v>
       </c>
       <c r="P8" t="n">
-        <v>238.2195853220269</v>
+        <v>119.0691472348008</v>
       </c>
       <c r="Q8" t="n">
-        <v>380.8280568316064</v>
+        <v>188.5450692522882</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_18_9_7</t>
+          <t>model_18_9_9</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9814546719995939</v>
+        <v>0.9880714107255092</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7820411442402784</v>
+        <v>0.7831614423684028</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9577869357703598</v>
+        <v>0.8930392062149296</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9619972051490998</v>
+        <v>0.9945094364664633</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9604963518313</v>
+        <v>0.9609569728531956</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1240126937320991</v>
+        <v>0.07976653140462324</v>
       </c>
       <c r="H9" t="n">
-        <v>1.457491872073507</v>
+        <v>1.45000043333224</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2664970625317042</v>
+        <v>0.4601177001080606</v>
       </c>
       <c r="J9" t="n">
-        <v>0.432500437089487</v>
+        <v>0.03842222355151138</v>
       </c>
       <c r="K9" t="n">
-        <v>0.3494987498105956</v>
+        <v>0.249269597443351</v>
       </c>
       <c r="L9" t="n">
-        <v>0.5156548796037087</v>
+        <v>0.05365801763645159</v>
       </c>
       <c r="M9" t="n">
-        <v>0.3521543606603489</v>
+        <v>0.2824296928522623</v>
       </c>
       <c r="N9" t="n">
-        <v>1.004785891096879</v>
+        <v>1.008675337654175</v>
       </c>
       <c r="O9" t="n">
-        <v>0.3671463008536822</v>
+        <v>0.2944533095870454</v>
       </c>
       <c r="P9" t="n">
-        <v>238.1747426996183</v>
+        <v>119.0573025369175</v>
       </c>
       <c r="Q9" t="n">
-        <v>380.7832142091979</v>
+        <v>188.5332245544049</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_18_9_8</t>
+          <t>model_18_9_10</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9810325174922522</v>
+        <v>0.9880361466746009</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7815997260048851</v>
+        <v>0.7831486201953197</v>
       </c>
       <c r="D10" t="n">
-        <v>0.955192686780532</v>
+        <v>0.8927169338414027</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9606145338636205</v>
+        <v>0.9944968696579867</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9586814548991082</v>
+        <v>0.9608414558286225</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1268356428665356</v>
+        <v>0.08000234227542308</v>
       </c>
       <c r="H10" t="n">
-        <v>1.460443637846126</v>
+        <v>1.450086175262688</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2828749244065001</v>
+        <v>0.4615040325955843</v>
       </c>
       <c r="J10" t="n">
-        <v>0.4482362780366357</v>
+        <v>0.03851016438338893</v>
       </c>
       <c r="K10" t="n">
-        <v>0.3655556012215679</v>
+        <v>0.2500071140837727</v>
       </c>
       <c r="L10" t="n">
-        <v>0.4784515304882087</v>
+        <v>0.05331634712123993</v>
       </c>
       <c r="M10" t="n">
-        <v>0.3561399203494824</v>
+        <v>0.2828468530413996</v>
       </c>
       <c r="N10" t="n">
-        <v>1.004894834195548</v>
+        <v>1.008700984236654</v>
       </c>
       <c r="O10" t="n">
-        <v>0.371301534070028</v>
+        <v>0.2948882291490748</v>
       </c>
       <c r="P10" t="n">
-        <v>238.1297263626338</v>
+        <v>119.0513987325881</v>
       </c>
       <c r="Q10" t="n">
-        <v>380.7381978722133</v>
+        <v>188.5273207500756</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_18_9_9</t>
+          <t>model_18_9_11</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9806098989119697</v>
+        <v>0.9880184592125251</v>
       </c>
       <c r="C11" t="n">
-        <v>0.781167135346396</v>
+        <v>0.7831421959355348</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9527623642671514</v>
+        <v>0.8925552710951217</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9593812956341801</v>
+        <v>0.9944905821846159</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9570211569151769</v>
+        <v>0.9607835462765099</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1296616952588642</v>
+        <v>0.08012061841576756</v>
       </c>
       <c r="H11" t="n">
-        <v>1.463336373571339</v>
+        <v>1.45012913431745</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2982178951820219</v>
+        <v>0.4621994639623473</v>
       </c>
       <c r="J11" t="n">
-        <v>0.4622714582217019</v>
+        <v>0.03855416327456812</v>
       </c>
       <c r="K11" t="n">
-        <v>0.3802446767018619</v>
+        <v>0.2503768367153957</v>
       </c>
       <c r="L11" t="n">
-        <v>0.4449003290184825</v>
+        <v>0.0531447546053308</v>
       </c>
       <c r="M11" t="n">
-        <v>0.3600856776641695</v>
+        <v>0.2830558574129275</v>
       </c>
       <c r="N11" t="n">
-        <v>1.005003897054976</v>
+        <v>1.008713847845436</v>
       </c>
       <c r="O11" t="n">
-        <v>0.375415270442445</v>
+        <v>0.2951061312693974</v>
       </c>
       <c r="P11" t="n">
-        <v>238.0856531293454</v>
+        <v>119.0484440991903</v>
       </c>
       <c r="Q11" t="n">
-        <v>380.694124638925</v>
+        <v>188.5243661166777</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_18_9_10</t>
+          <t>model_18_9_12</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9801945439139833</v>
+        <v>0.9880095942309854</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7807491507146904</v>
+        <v>0.7831389977897446</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9504954527145607</v>
+        <v>0.8924741807945261</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9582799612194893</v>
+        <v>0.9944874580779827</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9555039994919353</v>
+        <v>0.9607545233537417</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1324391760429336</v>
+        <v>0.08017989858814213</v>
       </c>
       <c r="H12" t="n">
-        <v>1.466131438728197</v>
+        <v>1.450150520333076</v>
       </c>
       <c r="I12" t="n">
-        <v>0.3125292293817411</v>
+        <v>0.4625482934847429</v>
       </c>
       <c r="J12" t="n">
-        <v>0.4748054736172605</v>
+        <v>0.03857602535169943</v>
       </c>
       <c r="K12" t="n">
-        <v>0.3936673514995008</v>
+        <v>0.2505621331128249</v>
       </c>
       <c r="L12" t="n">
-        <v>0.4146498740545513</v>
+        <v>0.05306344796583762</v>
       </c>
       <c r="M12" t="n">
-        <v>0.3639219367432164</v>
+        <v>0.2831605526695802</v>
       </c>
       <c r="N12" t="n">
-        <v>1.005111085441553</v>
+        <v>1.008720295104738</v>
       </c>
       <c r="O12" t="n">
-        <v>0.3794148470126379</v>
+        <v>0.2952152836198749</v>
       </c>
       <c r="P12" t="n">
-        <v>238.0432635753671</v>
+        <v>119.046964873142</v>
       </c>
       <c r="Q12" t="n">
-        <v>380.6517350849466</v>
+        <v>188.5228868906294</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_18_9_11</t>
+          <t>model_18_9_13</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9797920467417903</v>
+        <v>0.9880051776202118</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7803495930637785</v>
+        <v>0.7831372851247882</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9483886093048431</v>
+        <v>0.8924338894176462</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9572956037599305</v>
+        <v>0.9944858245802353</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9541191893016068</v>
+        <v>0.9607400603129048</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1351306764867168</v>
+        <v>0.08020943248472227</v>
       </c>
       <c r="H13" t="n">
-        <v>1.468803282579639</v>
+        <v>1.450161972931525</v>
       </c>
       <c r="I13" t="n">
-        <v>0.3258300306893559</v>
+        <v>0.4627216165782624</v>
       </c>
       <c r="J13" t="n">
-        <v>0.4860082031318085</v>
+        <v>0.03858745634876149</v>
       </c>
       <c r="K13" t="n">
-        <v>0.4059191169105822</v>
+        <v>0.2506544721713118</v>
       </c>
       <c r="L13" t="n">
-        <v>0.3875303701610882</v>
+        <v>0.05301877703322556</v>
       </c>
       <c r="M13" t="n">
-        <v>0.3676012465793836</v>
+        <v>0.2832126983112203</v>
       </c>
       <c r="N13" t="n">
-        <v>1.005214955679538</v>
+        <v>1.0087235071853</v>
       </c>
       <c r="O13" t="n">
-        <v>0.3832507926857522</v>
+        <v>0.2952696492094359</v>
       </c>
       <c r="P13" t="n">
-        <v>238.0030259895055</v>
+        <v>119.0462283179929</v>
       </c>
       <c r="Q13" t="n">
-        <v>380.611497499085</v>
+        <v>188.5221503354803</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_18_9_12</t>
+          <t>model_18_9_14</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9794063027879715</v>
+        <v>0.9880029744067839</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7799710033688028</v>
+        <v>0.7831365031028567</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9464370111877315</v>
+        <v>0.8924136955384619</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9564150326139185</v>
+        <v>0.9944850425386927</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9528565216632929</v>
+        <v>0.9607328346359407</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1377101480820915</v>
+        <v>0.08022416538305982</v>
       </c>
       <c r="H14" t="n">
-        <v>1.471334913613187</v>
+        <v>1.450167202315783</v>
       </c>
       <c r="I14" t="n">
-        <v>0.3381507464427382</v>
+        <v>0.4628084854291538</v>
       </c>
       <c r="J14" t="n">
-        <v>0.4960297662045448</v>
+        <v>0.03859292897006717</v>
       </c>
       <c r="K14" t="n">
-        <v>0.4170902563236416</v>
+        <v>0.2507006043931123</v>
       </c>
       <c r="L14" t="n">
-        <v>0.3631298680947275</v>
+        <v>0.05299417615234128</v>
       </c>
       <c r="M14" t="n">
-        <v>0.3710931797838536</v>
+        <v>0.2832387074237203</v>
       </c>
       <c r="N14" t="n">
-        <v>1.00531450250633</v>
+        <v>1.008725109522339</v>
       </c>
       <c r="O14" t="n">
-        <v>0.3868913847160347</v>
+        <v>0.2952967655837013</v>
       </c>
       <c r="P14" t="n">
-        <v>237.9652083578506</v>
+        <v>119.0458609909847</v>
       </c>
       <c r="Q14" t="n">
-        <v>380.5736798674301</v>
+        <v>188.5217830084722</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_18_9_13</t>
+          <t>model_18_9_15</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9790399414898442</v>
+        <v>0.9880018838572611</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7796147504612009</v>
+        <v>0.7831361174555616</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9446349447805958</v>
+        <v>0.8924038156303714</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9556266126846289</v>
+        <v>0.9944846877408291</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9517064745911799</v>
+        <v>0.9607292789351414</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1401600077696067</v>
+        <v>0.08023145789274047</v>
       </c>
       <c r="H15" t="n">
-        <v>1.473717178446715</v>
+        <v>1.450169781141021</v>
       </c>
       <c r="I15" t="n">
-        <v>0.3495274472995191</v>
+        <v>0.4628509862411527</v>
       </c>
       <c r="J15" t="n">
-        <v>0.5050025790033313</v>
+        <v>0.03859541179769444</v>
       </c>
       <c r="K15" t="n">
-        <v>0.4272650131514252</v>
+        <v>0.2507233057093689</v>
       </c>
       <c r="L15" t="n">
-        <v>0.3411354845299268</v>
+        <v>0.05298145336170909</v>
       </c>
       <c r="M15" t="n">
-        <v>0.3743794969941686</v>
+        <v>0.2832515805652997</v>
       </c>
       <c r="N15" t="n">
-        <v>1.00540904735746</v>
+        <v>1.008725902649265</v>
       </c>
       <c r="O15" t="n">
-        <v>0.3903176072536073</v>
+        <v>0.2953101867615688</v>
       </c>
       <c r="P15" t="n">
-        <v>237.9299411927204</v>
+        <v>119.0456791959305</v>
       </c>
       <c r="Q15" t="n">
-        <v>380.5384127022999</v>
+        <v>188.5216012134179</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_18_9_14</t>
+          <t>model_18_9_16</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9786944682119835</v>
+        <v>0.9880013123017826</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7792814982477489</v>
+        <v>0.7831359325635852</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9429746005459455</v>
+        <v>0.8923985480649913</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9549204356973234</v>
+        <v>0.9944844961572821</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9506598889508585</v>
+        <v>0.9607274081674966</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1424701891694196</v>
+        <v>0.08023527988685655</v>
       </c>
       <c r="H16" t="n">
-        <v>1.475945637532553</v>
+        <v>1.450171017514518</v>
       </c>
       <c r="I16" t="n">
-        <v>0.3600094359776851</v>
+        <v>0.4628736459464715</v>
       </c>
       <c r="J16" t="n">
-        <v>0.5130394051596824</v>
+        <v>0.0385967524735339</v>
       </c>
       <c r="K16" t="n">
-        <v>0.4365244205686838</v>
+        <v>0.2507352495961989</v>
       </c>
       <c r="L16" t="n">
-        <v>0.3213083090561419</v>
+        <v>0.05298085588179549</v>
       </c>
       <c r="M16" t="n">
-        <v>0.3774522342885516</v>
+        <v>0.2832583271271236</v>
       </c>
       <c r="N16" t="n">
-        <v>1.005498201751746</v>
+        <v>1.008726318325976</v>
       </c>
       <c r="O16" t="n">
-        <v>0.3935211573360552</v>
+        <v>0.2953172205384969</v>
       </c>
       <c r="P16" t="n">
-        <v>237.8972449999393</v>
+        <v>119.0455839239964</v>
       </c>
       <c r="Q16" t="n">
-        <v>380.5057165095188</v>
+        <v>188.5215059414838</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_18_9_15</t>
+          <t>model_18_9_17</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.978370636362439</v>
+        <v>0.9880012324073981</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7789712263498446</v>
+        <v>0.7831359005484102</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9414489564019958</v>
+        <v>0.8923978158833455</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9542871983219781</v>
+        <v>0.9944844952225343</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9497082756490541</v>
+        <v>0.9607271466656507</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1446356542384321</v>
+        <v>0.08023581414097344</v>
       </c>
       <c r="H17" t="n">
-        <v>1.47802042714251</v>
+        <v>1.45017123160014</v>
       </c>
       <c r="I17" t="n">
-        <v>0.3696410438756451</v>
+        <v>0.462876795602743</v>
       </c>
       <c r="J17" t="n">
-        <v>0.520246123578494</v>
+        <v>0.0385967590147727</v>
       </c>
       <c r="K17" t="n">
-        <v>0.4449435837270695</v>
+        <v>0.2507369191506522</v>
       </c>
       <c r="L17" t="n">
-        <v>0.30345174128645</v>
+        <v>0.0529844142799583</v>
       </c>
       <c r="M17" t="n">
-        <v>0.3803099449638834</v>
+        <v>0.2832592701765883</v>
       </c>
       <c r="N17" t="n">
-        <v>1.005581771261306</v>
+        <v>1.008726376430983</v>
       </c>
       <c r="O17" t="n">
-        <v>0.3965005266711126</v>
+        <v>0.2953182037355297</v>
       </c>
       <c r="P17" t="n">
-        <v>237.8670748563089</v>
+        <v>119.0455706068536</v>
       </c>
       <c r="Q17" t="n">
-        <v>380.4755463658884</v>
+        <v>188.521492624341</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_18_9_16</t>
+          <t>model_18_9_18</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9780686737741586</v>
+        <v>0.9880009935253039</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7786835627140321</v>
+        <v>0.7831358155477037</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9400493857695068</v>
+        <v>0.8923955829738381</v>
       </c>
       <c r="E18" t="n">
-        <v>0.953719489002393</v>
+        <v>0.9944843874539517</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9488437898824212</v>
+        <v>0.9607263647831923</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1466548794566731</v>
+        <v>0.08023741154663749</v>
       </c>
       <c r="H18" t="n">
-        <v>1.479944035199758</v>
+        <v>1.450171800000256</v>
       </c>
       <c r="I18" t="n">
-        <v>0.3784767318118466</v>
+        <v>0.4628864010025417</v>
       </c>
       <c r="J18" t="n">
-        <v>0.526707083353258</v>
+        <v>0.03859751316478789</v>
       </c>
       <c r="K18" t="n">
-        <v>0.4525919075825523</v>
+        <v>0.2507419110670048</v>
       </c>
       <c r="L18" t="n">
-        <v>0.2873582460138205</v>
+        <v>0.05298127453542031</v>
       </c>
       <c r="M18" t="n">
-        <v>0.3829554536191816</v>
+        <v>0.2832620898507908</v>
       </c>
       <c r="N18" t="n">
-        <v>1.00565969709054</v>
+        <v>1.008726550163415</v>
       </c>
       <c r="O18" t="n">
-        <v>0.3992586601068246</v>
+        <v>0.2953211434491005</v>
       </c>
       <c r="P18" t="n">
-        <v>237.8393464226169</v>
+        <v>119.0455307894783</v>
       </c>
       <c r="Q18" t="n">
-        <v>380.4478179321964</v>
+        <v>188.5214528069657</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_18_9_17</t>
+          <t>model_18_9_22</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9777883373528093</v>
+        <v>0.988000777536143</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7784178209617674</v>
+        <v>0.7831357312242704</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9387687550719991</v>
+        <v>0.8923936309877304</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9532098995317311</v>
+        <v>0.9944843139036968</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9480591216835127</v>
+        <v>0.9607256578323777</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1485294903970661</v>
+        <v>0.08023885586715059</v>
       </c>
       <c r="H19" t="n">
-        <v>1.48172105152078</v>
+        <v>1.450172363871443</v>
       </c>
       <c r="I19" t="n">
-        <v>0.3865615350665252</v>
+        <v>0.4628947979424554</v>
       </c>
       <c r="J19" t="n">
-        <v>0.532506595459202</v>
+        <v>0.03859802785955803</v>
       </c>
       <c r="K19" t="n">
-        <v>0.4595340652628636</v>
+        <v>0.2507464245834464</v>
       </c>
       <c r="L19" t="n">
-        <v>0.272868193055027</v>
+        <v>0.05297768036767336</v>
       </c>
       <c r="M19" t="n">
-        <v>0.3853952391987557</v>
+        <v>0.2832646392812745</v>
       </c>
       <c r="N19" t="n">
-        <v>1.005732041973469</v>
+        <v>1.008726707246441</v>
       </c>
       <c r="O19" t="n">
-        <v>0.4018023124095736</v>
+        <v>0.295323801414118</v>
       </c>
       <c r="P19" t="n">
-        <v>237.8139435038461</v>
+        <v>119.0454947886282</v>
       </c>
       <c r="Q19" t="n">
-        <v>380.4224150134256</v>
+        <v>188.5214168061156</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_18_9_18</t>
+          <t>model_18_9_21</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.977529014547197</v>
+        <v>0.988000777536143</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7781730129565912</v>
+        <v>0.7831357312242704</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9375981422005593</v>
+        <v>0.8923936309877304</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9527526575182622</v>
+        <v>0.9944843139036968</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9473473750862571</v>
+        <v>0.9607256578323777</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1502635831922675</v>
+        <v>0.08023885586715059</v>
       </c>
       <c r="H20" t="n">
-        <v>1.48335808377863</v>
+        <v>1.450172363871443</v>
       </c>
       <c r="I20" t="n">
-        <v>0.3939517801788772</v>
+        <v>0.4628947979424554</v>
       </c>
       <c r="J20" t="n">
-        <v>0.5377103540631896</v>
+        <v>0.03859802785955803</v>
       </c>
       <c r="K20" t="n">
-        <v>0.4658310671210334</v>
+        <v>0.2507464245834464</v>
       </c>
       <c r="L20" t="n">
-        <v>0.2598197711487915</v>
+        <v>0.05297768036767336</v>
       </c>
       <c r="M20" t="n">
-        <v>0.3876384697011733</v>
+        <v>0.2832646392812745</v>
       </c>
       <c r="N20" t="n">
-        <v>1.00579896398782</v>
+        <v>1.008726707246441</v>
       </c>
       <c r="O20" t="n">
-        <v>0.4041410418786064</v>
+        <v>0.295323801414118</v>
       </c>
       <c r="P20" t="n">
-        <v>237.7907286114223</v>
+        <v>119.0454947886282</v>
       </c>
       <c r="Q20" t="n">
-        <v>380.3992001210017</v>
+        <v>188.5214168061156</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_18_9_19</t>
+          <t>model_18_9_20</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9772898926216222</v>
+        <v>0.988000777536143</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7779481817327547</v>
+        <v>0.7831357312242704</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9365301212887776</v>
+        <v>0.8923936309877304</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9523420078468539</v>
+        <v>0.9944843139036968</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9467021990740949</v>
+        <v>0.9607256578323777</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1518625926096415</v>
+        <v>0.08023885586715059</v>
       </c>
       <c r="H21" t="n">
-        <v>1.484861531207677</v>
+        <v>1.450172363871443</v>
       </c>
       <c r="I21" t="n">
-        <v>0.4006943476969305</v>
+        <v>0.4628947979424554</v>
       </c>
       <c r="J21" t="n">
-        <v>0.5423838567113916</v>
+        <v>0.03859802785955803</v>
       </c>
       <c r="K21" t="n">
-        <v>0.4715391022041611</v>
+        <v>0.2507464245834464</v>
       </c>
       <c r="L21" t="n">
-        <v>0.2480618460759534</v>
+        <v>0.05297768036767336</v>
       </c>
       <c r="M21" t="n">
-        <v>0.3896955126886137</v>
+        <v>0.2832646392812745</v>
       </c>
       <c r="N21" t="n">
-        <v>1.005860672871839</v>
+        <v>1.008726707246441</v>
       </c>
       <c r="O21" t="n">
-        <v>0.4062856574446882</v>
+        <v>0.295323801414118</v>
       </c>
       <c r="P21" t="n">
-        <v>237.7695583259517</v>
+        <v>119.0454947886282</v>
       </c>
       <c r="Q21" t="n">
-        <v>380.3780298355312</v>
+        <v>188.5214168061156</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_18_9_20</t>
+          <t>model_18_9_24</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9770700001538979</v>
+        <v>0.988000777536143</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7777420752483081</v>
+        <v>0.7831357312242704</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9355569860293551</v>
+        <v>0.8923936309877304</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9519730971607377</v>
+        <v>0.9944843139036968</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9461177225662701</v>
+        <v>0.9607256578323777</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1533330145538258</v>
+        <v>0.08023885586715059</v>
       </c>
       <c r="H22" t="n">
-        <v>1.486239766218205</v>
+        <v>1.450172363871443</v>
       </c>
       <c r="I22" t="n">
-        <v>0.4068378886318249</v>
+        <v>0.4628947979424554</v>
       </c>
       <c r="J22" t="n">
-        <v>0.5465823382603991</v>
+        <v>0.03859802785955803</v>
       </c>
       <c r="K22" t="n">
-        <v>0.476710113446112</v>
+        <v>0.2507464245834464</v>
       </c>
       <c r="L22" t="n">
-        <v>0.2374669963043324</v>
+        <v>0.05297768036767336</v>
       </c>
       <c r="M22" t="n">
-        <v>0.3915775971041062</v>
+        <v>0.2832646392812745</v>
       </c>
       <c r="N22" t="n">
-        <v>1.005917419315123</v>
+        <v>1.008726707246441</v>
       </c>
       <c r="O22" t="n">
-        <v>0.4082478660902001</v>
+        <v>0.295323801414118</v>
       </c>
       <c r="P22" t="n">
-        <v>237.7502863143321</v>
+        <v>119.0454947886282</v>
       </c>
       <c r="Q22" t="n">
-        <v>380.3587578239116</v>
+        <v>188.5214168061156</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_18_9_21</t>
+          <t>model_18_9_23</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9768683331249335</v>
+        <v>0.988000777536143</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7775535678026213</v>
+        <v>0.7831357312242704</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9346715599985087</v>
+        <v>0.8923936309877304</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9516416879474009</v>
+        <v>0.9944843139036968</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9455886596355202</v>
+        <v>0.9607256578323777</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1546815629051018</v>
+        <v>0.08023885586715059</v>
       </c>
       <c r="H23" t="n">
-        <v>1.48750031637551</v>
+        <v>1.450172363871443</v>
       </c>
       <c r="I23" t="n">
-        <v>0.4124277087649005</v>
+        <v>0.4628947979424554</v>
       </c>
       <c r="J23" t="n">
-        <v>0.5503540247951927</v>
+        <v>0.03859802785955803</v>
       </c>
       <c r="K23" t="n">
-        <v>0.4813908667800466</v>
+        <v>0.2507464245834464</v>
       </c>
       <c r="L23" t="n">
-        <v>0.2279253912415401</v>
+        <v>0.05297768036767336</v>
       </c>
       <c r="M23" t="n">
-        <v>0.3932957702608837</v>
+        <v>0.2832646392812745</v>
       </c>
       <c r="N23" t="n">
-        <v>1.005969462419372</v>
+        <v>1.008726707246441</v>
       </c>
       <c r="O23" t="n">
-        <v>0.4100391854353703</v>
+        <v>0.295323801414118</v>
       </c>
       <c r="P23" t="n">
-        <v>237.7327734163505</v>
+        <v>119.0454947886282</v>
       </c>
       <c r="Q23" t="n">
-        <v>380.34124492593</v>
+        <v>188.5214168061156</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_18_9_22</t>
+          <t>model_18_9_19</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.976683766025144</v>
+        <v>0.988000777536143</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7773814690267142</v>
+        <v>0.7831357312242704</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9338665542543541</v>
+        <v>0.8923936309877304</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9513440358975703</v>
+        <v>0.9944843139036968</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9451100014282686</v>
+        <v>0.9607256578323777</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1559157639512479</v>
+        <v>0.08023885586715059</v>
       </c>
       <c r="H24" t="n">
-        <v>1.488651141682443</v>
+        <v>1.450172363871443</v>
       </c>
       <c r="I24" t="n">
-        <v>0.417509824220232</v>
+        <v>0.4628947979424554</v>
       </c>
       <c r="J24" t="n">
-        <v>0.5537415293762996</v>
+        <v>0.03859802785955803</v>
       </c>
       <c r="K24" t="n">
-        <v>0.4856256767982658</v>
+        <v>0.2507464245834464</v>
       </c>
       <c r="L24" t="n">
-        <v>0.2193368166746189</v>
+        <v>0.05297768036767336</v>
       </c>
       <c r="M24" t="n">
-        <v>0.3948617023101226</v>
+        <v>0.2832646392812745</v>
       </c>
       <c r="N24" t="n">
-        <v>1.006017092638672</v>
+        <v>1.008726707246441</v>
       </c>
       <c r="O24" t="n">
-        <v>0.4116717824538715</v>
+        <v>0.295323801414118</v>
       </c>
       <c r="P24" t="n">
-        <v>237.7168787844858</v>
+        <v>119.0454947886282</v>
       </c>
       <c r="Q24" t="n">
-        <v>380.3253502940653</v>
+        <v>188.5214168061156</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_18_9_23</t>
+          <t>model_18_9_1</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9765150774564555</v>
+        <v>0.9965374069552829</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7772245689154774</v>
+        <v>0.7772133635645193</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9331353565317564</v>
+        <v>0.9967868825091232</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9510763723577884</v>
+        <v>0.9988364848386355</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9446769648616595</v>
+        <v>0.9982798827427413</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1570437851868073</v>
+        <v>0.02315437563379821</v>
       </c>
       <c r="H25" t="n">
-        <v>1.489700333448742</v>
+        <v>1.489775263682195</v>
       </c>
       <c r="I25" t="n">
-        <v>0.4221259791655848</v>
+        <v>0.01382200129376383</v>
       </c>
       <c r="J25" t="n">
-        <v>0.5567877421194096</v>
+        <v>0.008142122272596777</v>
       </c>
       <c r="K25" t="n">
-        <v>0.4894568606424972</v>
+        <v>0.01098206178173687</v>
       </c>
       <c r="L25" t="n">
-        <v>0.2115995537830012</v>
+        <v>0.1073202633327551</v>
       </c>
       <c r="M25" t="n">
-        <v>0.3962875031928301</v>
+        <v>0.1521656190924816</v>
       </c>
       <c r="N25" t="n">
-        <v>1.006060625172528</v>
+        <v>1.002518249487067</v>
       </c>
       <c r="O25" t="n">
-        <v>0.4131582826319705</v>
+        <v>0.1586436245235042</v>
       </c>
       <c r="P25" t="n">
-        <v>237.7024612519506</v>
+        <v>121.5311430081027</v>
       </c>
       <c r="Q25" t="n">
-        <v>380.3109327615301</v>
+        <v>191.0070650255902</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_18_9_24</t>
+          <t>model_18_9_0</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9763612231191908</v>
+        <v>0.9965356663144855</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7770817394806619</v>
+        <v>0.7772112669483977</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9324720173472105</v>
+        <v>0.9968026050022738</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9508357746491719</v>
+        <v>0.9988362436781371</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9442855474376843</v>
+        <v>0.9982850473330119</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1580726098485298</v>
+        <v>0.02316601530682492</v>
       </c>
       <c r="H26" t="n">
-        <v>1.490655434537022</v>
+        <v>1.489789283763854</v>
       </c>
       <c r="I26" t="n">
-        <v>0.4263137335342791</v>
+        <v>0.01375436719034633</v>
       </c>
       <c r="J26" t="n">
-        <v>0.559525925312189</v>
+        <v>0.008143809881259914</v>
       </c>
       <c r="K26" t="n">
-        <v>0.4929198294232341</v>
+        <v>0.0109490885357621</v>
       </c>
       <c r="L26" t="n">
-        <v>0.2046324873015698</v>
+        <v>0.1066662680211151</v>
       </c>
       <c r="M26" t="n">
-        <v>0.3975834627452829</v>
+        <v>0.1522038610115556</v>
       </c>
       <c r="N26" t="n">
-        <v>1.006100329517628</v>
+        <v>1.002519515407647</v>
       </c>
       <c r="O26" t="n">
-        <v>0.4145094138655774</v>
+        <v>0.1586834944802448</v>
       </c>
       <c r="P26" t="n">
-        <v>237.6894015910307</v>
+        <v>121.5301378634539</v>
       </c>
       <c r="Q26" t="n">
-        <v>380.2978731006102</v>
+        <v>191.0060598809413</v>
       </c>
     </row>
   </sheetData>
